--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2957.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2957.xlsx
@@ -354,7 +354,7 @@
         <v>2.805237748493736</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.133104011434031</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2957.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2957.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.196067597368037</v>
+        <v>0.2594945728778839</v>
       </c>
       <c r="B1">
-        <v>2.805237748493736</v>
+        <v>0.3570446968078613</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.54664134979248</v>
       </c>
       <c r="D1">
-        <v>2.133104011434031</v>
+        <v>3.954626560211182</v>
       </c>
       <c r="E1">
-        <v>1.206241504414397</v>
+        <v>1.278937816619873</v>
       </c>
     </row>
   </sheetData>
